--- a/10. Communicatie/sjabloon_links.xlsx
+++ b/10. Communicatie/sjabloon_links.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plu3532\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\JiveDocumentation\10. Communicatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BCD6A06-DC42-43F5-90D2-AC566F722918}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE339DE-B736-4466-B65F-52133AEC80A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2475" windowWidth="24240" windowHeight="13140" xr2:uid="{72F6FAE1-3AFF-42D1-9832-ACCCD42F5209}"/>
+    <workbookView xWindow="28680" yWindow="2475" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{72F6FAE1-3AFF-42D1-9832-ACCCD42F5209}"/>
   </bookViews>
   <sheets>
     <sheet name="verwijzen naar PinC" sheetId="4" r:id="rId1"/>
@@ -181,13 +181,13 @@
     <t>landbouw-antwerpen</t>
   </si>
   <si>
-    <t>https://provincies.incijfers.be/jiveworkspace_guid=ff593898-a5fa-41de-bddc-ebf303c20587</t>
-  </si>
-  <si>
     <t>Algemene uitleg</t>
   </si>
   <si>
     <t>Eens we een URL hebben, voorzien we die van tracking codes, zodat we kunnen zien wat het effect is van communicatiecampagnes. Zie daarvoor het tweede tabblad!</t>
+  </si>
+  <si>
+    <t>https://provincies.incijfers.be/databank?jiveworkspace_guid=ff593898-a5fa-41de-bddc-ebf303c20587</t>
   </si>
 </sst>
 </file>
@@ -273,7 +273,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -305,6 +305,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -622,7 +623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4A7620F-3931-4659-9688-FFF774BC9461}">
   <dimension ref="A1:A32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -758,7 +759,7 @@
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
@@ -776,7 +777,7 @@
     </row>
     <row r="32" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A32" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -793,8 +794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A26CEBE2-0F8A-495C-89AB-A5AE077BA272}">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -812,8 +813,8 @@
       <c r="A1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>37</v>
+      <c r="B1" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
@@ -939,8 +940,8 @@
         <v>26</v>
       </c>
       <c r="B7" s="1" t="str">
-        <f>CONCATENATE(B1,IFERROR(IF(FIND("?",B1)&gt;0,"&amp;","?"),"?"),"mtm_campaign=",B2,"&amp;mtm_kwd=",B3,"&amp;mtm_source",B4,"&amp;mtm_medium=",B5,"&amp;mtm_content=",B6)</f>
-        <v>https://provincies.incijfers.be/jiveworkspace_guid=ff593898-a5fa-41de-bddc-ebf303c20587?mtm_campaign=pinc-nieuwsbrief-mei-2021&amp;mtm_kwd=afval-algemeen&amp;mtm_sourcelandbouw-antwerpen&amp;mtm_medium=email&amp;mtm_content=link-ivm-afval</v>
+        <f>CONCATENATE(B1,IFERROR(IF(FIND("?",B1)&gt;0,"&amp;","?"),"?"),"mtm_campaign=",B2,"&amp;mtm_kwd=",B3,"&amp;mtm_source=",B4,"&amp;mtm_medium=",B5,"&amp;mtm_content=",B6)</f>
+        <v>https://provincies.incijfers.be/databank?jiveworkspace_guid=ff593898-a5fa-41de-bddc-ebf303c20587&amp;mtm_campaign=pinc-nieuwsbrief-mei-2021&amp;mtm_kwd=afval-algemeen&amp;mtm_source=landbouw-antwerpen&amp;mtm_medium=email&amp;mtm_content=link-ivm-afval</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -964,9 +965,10 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A9" r:id="rId1" location="matomo-urls-opstellen" display="Klik voor meer details en voorbeelden" xr:uid="{7864DFD9-BBB1-4350-B370-478549C47A02}"/>
+    <hyperlink ref="B1" r:id="rId2" xr:uid="{1183021B-10FF-4AD0-BFBE-5F37ABE55BF6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1149,18 +1151,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1182,14 +1184,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4FD8BEE-8873-449E-A338-98F2026C684D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BD01876-4A38-4D89-AF61-D36C1FE0C3B9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -1203,4 +1197,12 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4FD8BEE-8873-449E-A338-98F2026C684D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/10. Communicatie/sjabloon_links.xlsx
+++ b/10. Communicatie/sjabloon_links.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\JiveDocumentation\10. Communicatie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\JiveDocumentation\10. Communicatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE339DE-B736-4466-B65F-52133AEC80A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4998232-6170-4387-B90A-7BEDE016D18D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2475" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{72F6FAE1-3AFF-42D1-9832-ACCCD42F5209}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{72F6FAE1-3AFF-42D1-9832-ACCCD42F5209}"/>
   </bookViews>
   <sheets>
     <sheet name="verwijzen naar PinC" sheetId="4" r:id="rId1"/>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
-  <si>
-    <t>email</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>pinc-nieuwsbrief-mei-2021</t>
   </si>
@@ -157,18 +154,6 @@
     <t>Inhoudelijke omschrijving van de link (mtm_kwd)</t>
   </si>
   <si>
-    <t>Het specifieke kanaal waarmee je communiceerde. (mtm_source)</t>
-  </si>
-  <si>
-    <t>Het TYPE kanaal waarmee je communiceerde (mtm_medium)</t>
-  </si>
-  <si>
-    <t>Hoe je verwees naar de cijfers</t>
-  </si>
-  <si>
-    <t>link-ivm-afval</t>
-  </si>
-  <si>
     <t>Opgelet: als je link eindigt met referencecode=undefined, dan kan je dit best veranderen door de gebiedscode van het effectieve vergelijkingsgebied; bijvoorbeeld 2000 voor het Vlaams Gewest</t>
   </si>
   <si>
@@ -176,9 +161,6 @@
   </si>
   <si>
     <t>URL met de oorspronkelijke verwijzing</t>
-  </si>
-  <si>
-    <t>landbouw-antwerpen</t>
   </si>
   <si>
     <t>Algemene uitleg</t>
@@ -194,7 +176,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,13 +201,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -273,7 +248,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -289,7 +264,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -302,7 +276,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
@@ -627,157 +601,157 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="67.36328125" customWidth="1"/>
+    <col min="1" max="1" width="67.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11"/>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" s="12" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" s="12"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" s="13" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" s="12" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" s="12"/>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A13" s="13" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="11"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A14" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A15" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A16" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="12" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="12"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" s="13" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="11"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" s="12" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" s="12"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
+    <row r="30" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A31" s="12"/>
-    </row>
-    <row r="32" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="13" t="s">
-        <v>38</v>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="11"/>
+    </row>
+    <row r="32" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="12" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -792,29 +766,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A26CEBE2-0F8A-495C-89AB-A5AE077BA272}">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.81640625" customWidth="1"/>
-    <col min="2" max="3" width="19.6328125" customWidth="1"/>
-    <col min="4" max="4" width="48.54296875" customWidth="1"/>
+    <col min="1" max="1" width="36.77734375" customWidth="1"/>
+    <col min="2" max="3" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="48.5546875" customWidth="1"/>
     <col min="5" max="5" width="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>39</v>
+        <v>30</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>33</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
@@ -830,12 +804,12 @@
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
     </row>
-    <row r="2" spans="1:16" ht="58" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
@@ -851,12 +825,12 @@
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
     </row>
-    <row r="3" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
@@ -872,99 +846,36 @@
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>36</v>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="1" t="str">
+        <f>CONCATENATE(B1,IFERROR(IF(FIND("?",B1)&gt;0,"&amp;","?"),"?"),"mtm_campaign=",B2,"&amp;mtm_kwd=",B3)</f>
+        <v>https://provincies.incijfers.be/databank?jiveworkspace_guid=ff593898-a5fa-41de-bddc-ebf303c20587&amp;mtm_campaign=pinc-nieuwsbrief-mei-2021&amp;mtm_kwd=afval-algemeen</v>
       </c>
       <c r="D4" s="5"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="8"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A7" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="1" t="str">
-        <f>CONCATENATE(B1,IFERROR(IF(FIND("?",B1)&gt;0,"&amp;","?"),"?"),"mtm_campaign=",B2,"&amp;mtm_kwd=",B3,"&amp;mtm_source=",B4,"&amp;mtm_medium=",B5,"&amp;mtm_content=",B6)</f>
-        <v>https://provincies.incijfers.be/databank?jiveworkspace_guid=ff593898-a5fa-41de-bddc-ebf303c20587&amp;mtm_campaign=pinc-nieuwsbrief-mei-2021&amp;mtm_kwd=afval-algemeen&amp;mtm_source=landbouw-antwerpen&amp;mtm_medium=email&amp;mtm_content=link-ivm-afval</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A9" s="10" t="s">
-        <v>34</v>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A9" r:id="rId1" location="matomo-urls-opstellen" display="Klik voor meer details en voorbeelden" xr:uid="{7864DFD9-BBB1-4350-B370-478549C47A02}"/>
+    <hyperlink ref="A6" r:id="rId1" location="matomo-urls-opstellen" display="Klik voor meer details en voorbeelden" xr:uid="{7864DFD9-BBB1-4350-B370-478549C47A02}"/>
     <hyperlink ref="B1" r:id="rId2" xr:uid="{1183021B-10FF-4AD0-BFBE-5F37ABE55BF6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -973,6 +884,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100936F8FED91617845B8AEE40909B55B39" ma:contentTypeVersion="9" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="fdd048e5dac583385d85172ba3b74e7c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="50990e7d-986b-48ed-b7c7-e36476cb9bc9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d1746dd66c24095ee243b6b7578615d7" ns2:_="">
     <xsd:import namespace="50990e7d-986b-48ed-b7c7-e36476cb9bc9"/>
@@ -1150,35 +1076,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B20CB91D-FED1-447E-B613-85B1339A1856}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4FD8BEE-8873-449E-A338-98F2026C684D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="50990e7d-986b-48ed-b7c7-e36476cb9bc9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1200,9 +1101,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4FD8BEE-8873-449E-A338-98F2026C684D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B20CB91D-FED1-447E-B613-85B1339A1856}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="50990e7d-986b-48ed-b7c7-e36476cb9bc9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>